--- a/Metrics Not In Controlled Vocabulary.xlsx
+++ b/Metrics Not In Controlled Vocabulary.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF28"/>
+  <dimension ref="A1:AK28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -416,105 +416,130 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>AREMPFieldCorrection</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>AREMPDescriptionIfDifferentFromDefinition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>AREMPUnits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>AREMPCollectionMethodID</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>AREMPAnalysisMethodID</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>BLMFieldFromMetadata</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>BLMField</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>BLMFieldCorrection</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>BLMDescriptionIfDifferentFromDefinition</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>BLMUnits</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>BLMCollectionMethodID</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>BLMAnalysisMethodID</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>EPA2008Field</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>EPA2008FieldCorrection</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>EPA2004Field</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>EPA2004FieldCorrection</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>EPADescriptionIfDifferentFromDefinition</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>EPAUnits</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>EPACollectionMethodID</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>EPAAnalysisMethodID</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>PIBOField</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>PIBOFieldCorrection</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>PIBODescriptionIfDifferentFromDescription</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>PIBOUnits</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>PIBOCollectionMethodID</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>PIBOAnalysisMethodID</t>
         </is>
@@ -944,32 +969,32 @@
           <t>site_survey_id</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>UID</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>UID</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>UID</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>RchID</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AI11" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
@@ -1060,42 +1085,42 @@
           <t>lattitude</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>BRLat</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>BTMLAT</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>decimal degrees</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>LAT_DD83</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>LAT_DD</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t xml:space="preserve">Decimal Degrees </t>
         </is>
       </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
         <is>
           <t>Lat</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AI13" t="inlineStr">
         <is>
           <t>Decimal degree</t>
         </is>
@@ -1148,42 +1173,42 @@
           <t>longitude</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>BRLong</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>BTMLONG</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>decimal degrees</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>LON_DD83</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="Z14" t="inlineStr">
         <is>
           <t>LON_DD</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t xml:space="preserve">Decimal Degrees </t>
         </is>
       </c>
-      <c r="AB14" t="inlineStr">
+      <c r="AF14" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="AD14" t="inlineStr">
+      <c r="AI14" t="inlineStr">
         <is>
           <t>Decimal degree</t>
         </is>
@@ -1231,32 +1256,32 @@
           <t xml:space="preserve">For this data set this field is often refered to as Stream Name. </t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>StreamName</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>STRM_NM</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="Z15" t="inlineStr">
         <is>
           <t>SITENAME</t>
         </is>
       </c>
-      <c r="AB15" t="inlineStr">
+      <c r="AF15" t="inlineStr">
         <is>
           <t>Stream</t>
         </is>
       </c>
-      <c r="AD15" t="inlineStr">
+      <c r="AI15" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
@@ -1337,27 +1362,27 @@
           <t>STATES</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>ADMIN_ST</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr">
+      <c r="X17" t="inlineStr">
         <is>
           <t>STATE</t>
         </is>
       </c>
-      <c r="W17" t="inlineStr">
+      <c r="Z17" t="inlineStr">
         <is>
           <t>STATE</t>
         </is>
       </c>
-      <c r="AB17" t="inlineStr">
+      <c r="AF17" t="inlineStr">
         <is>
           <t>State</t>
         </is>
       </c>
-      <c r="AD17" t="inlineStr">
+      <c r="AI17" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
@@ -1547,37 +1572,37 @@
           <t>GLOBALID</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>MasterCode</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="R22" t="inlineStr">
         <is>
           <t>MS_CD</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr">
+      <c r="U22" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="V22" t="inlineStr">
+      <c r="X22" t="inlineStr">
         <is>
           <t>SITE_ID</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr">
+      <c r="Z22" t="inlineStr">
         <is>
           <t>SITE_ID</t>
         </is>
       </c>
-      <c r="AB22" t="inlineStr">
+      <c r="AF22" t="inlineStr">
         <is>
           <t>SiteID</t>
         </is>
       </c>
-      <c r="AD22" t="inlineStr">
+      <c r="AI22" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
@@ -1625,22 +1650,22 @@
           <t>survey_year</t>
         </is>
       </c>
-      <c r="V23" t="inlineStr">
+      <c r="X23" t="inlineStr">
         <is>
           <t>YEAR</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
+      <c r="Z23" t="inlineStr">
         <is>
           <t xml:space="preserve">YEAR </t>
         </is>
       </c>
-      <c r="AB23" t="inlineStr">
+      <c r="AF23" t="inlineStr">
         <is>
           <t>Yr</t>
         </is>
       </c>
-      <c r="AD23" t="inlineStr">
+      <c r="AI23" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
@@ -1721,22 +1746,22 @@
           <t xml:space="preserve">Date </t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
+      <c r="Q25" t="inlineStr">
         <is>
           <t>Date (DT)</t>
         </is>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="R25" t="inlineStr">
         <is>
           <t>DT</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr">
+      <c r="U25" t="inlineStr">
         <is>
           <t>m/d/yyyy</t>
         </is>
       </c>
-      <c r="V25" t="inlineStr">
+      <c r="X25" t="inlineStr">
         <is>
           <t>DATE_COL</t>
         </is>
@@ -1784,17 +1809,17 @@
           <t>survey_type</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
+      <c r="Q26" t="inlineStr">
         <is>
           <t>Protocol</t>
         </is>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="R26" t="inlineStr">
         <is>
           <t>Protocol</t>
         </is>
       </c>
-      <c r="S26" t="inlineStr">
+      <c r="U26" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
@@ -1837,17 +1862,17 @@
           <t xml:space="preserve">Text </t>
         </is>
       </c>
-      <c r="P27" t="inlineStr">
+      <c r="Q27" t="inlineStr">
         <is>
           <t>FieldStatus</t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="R27" t="inlineStr">
         <is>
           <t>FieldStatus</t>
         </is>
       </c>
-      <c r="S27" t="inlineStr">
+      <c r="U27" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
@@ -1898,7 +1923,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2121,12 +2146,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AREMPDescriptionIfDifferentFromDefinition</t>
+          <t>AREMPFieldCorrection</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Description of the element if it is different from the definition defined in the "Definition" </t>
+          <t xml:space="preserve">Data manager correction or note on the field cross-walk </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2138,12 +2163,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AREMPUnits</t>
+          <t>AREMPDescriptionIfDifferentFromDefinition</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Unit of metric in the AREMP data set</t>
+          <t xml:space="preserve">Description of the element if it is different from the definition defined in the "Definition" </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2155,12 +2180,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>AREMPCollectionMethodID</t>
+          <t>AREMPUnits</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">The ID number of the data collection method documented in MonitoringResources.org </t>
+          <t>Unit of metric in the AREMP data set</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2172,12 +2197,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>AREMPAnalysisMethodID</t>
+          <t>AREMPCollectionMethodID</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">The ID number of the data analysis method documented in MonitoringResources.org </t>
+          <t xml:space="preserve">The ID number of the data collection method documented in MonitoringResources.org </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2189,12 +2214,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BLMFieldFromMetadata</t>
+          <t>AREMPAnalysisMethodID</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">The BLM field name from the metadata </t>
+          <t xml:space="preserve">The ID number of the data analysis method documented in MonitoringResources.org </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2206,12 +2231,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BLMField</t>
+          <t>BLMFieldFromMetadata</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">The column header in the BLM data set. The metadata and the data set field names don't always agree. </t>
+          <t xml:space="preserve">The BLM field name from the metadata </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2223,12 +2248,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BLMDescriptionIfDifferentFromDefinition</t>
+          <t>BLMField</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Description of the element if it is different from the definition defined in the "Definition" </t>
+          <t xml:space="preserve">The column header in the BLM data set. The metadata and the data set field names don't always agree. </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2240,12 +2265,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BLMUnits</t>
+          <t>BLMFieldCorrection</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unit of the metric from the BLM metadata </t>
+          <t xml:space="preserve">Data manager correction or note on the field cross-walk </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2257,12 +2282,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BLMCollectionMethodID</t>
+          <t>BLMDescriptionIfDifferentFromDefinition</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">The ID number of the data collection method documented in MonitoringResources.org </t>
+          <t xml:space="preserve">Description of the element if it is different from the definition defined in the "Definition" </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2274,12 +2299,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BLMAnalysisMethodID</t>
+          <t>BLMUnits</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">The ID number of the data analysis method documented in MonitoringResources.org </t>
+          <t xml:space="preserve">Unit of the metric from the BLM metadata </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2291,12 +2316,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>EPA2008Field</t>
+          <t>BLMCollectionMethodID</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">The column header in the 2008 EPA data set </t>
+          <t xml:space="preserve">The ID number of the data collection method documented in MonitoringResources.org </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2308,12 +2333,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>EPA2004Field</t>
+          <t>BLMAnalysisMethodID</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>The column header in the 2004 EPA data set</t>
+          <t xml:space="preserve">The ID number of the data analysis method documented in MonitoringResources.org </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2325,12 +2350,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>EPADescriptionIfDifferentFromDefinition</t>
+          <t>EPA2008Field</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Description of the element if it is different from the definition defined in the "Definition" </t>
+          <t xml:space="preserve">The column header in the 2008 EPA data set </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2342,12 +2367,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>EPAUnits</t>
+          <t>EPA2008FieldCorrection</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unit of the metric from the EPA metadata </t>
+          <t xml:space="preserve">Data manager correction or note on the field cross-walk </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2359,12 +2384,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>EPACollectionMethodID</t>
+          <t>EPA2004Field</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">The ID number of the data collection method documented in MonitoringResources.org </t>
+          <t>The column header in the 2004 EPA data set</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2376,12 +2401,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>EPAAnalysisMethodID</t>
+          <t>EPA2004FieldCorrection</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve">The ID number of the data analysis method documented in MonitoringResources.org </t>
+          <t xml:space="preserve">Data manager correction or note on the field cross-walk </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2393,12 +2418,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PIBOField</t>
+          <t>EPADescriptionIfDifferentFromDefinition</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve">The column header in the PIBO data set </t>
+          <t xml:space="preserve">Description of the element if it is different from the definition defined in the "Definition" </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2410,12 +2435,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>PIBODescriptionIfDifferentFromDescription</t>
+          <t>EPAUnits</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Description of the element if it is different from the definition defined in the "Definition" </t>
+          <t xml:space="preserve">Unit of the metric from the EPA metadata </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2427,12 +2452,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PIBOUnits</t>
+          <t>EPACollectionMethodID</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unit of the metric from the PIBO metadata </t>
+          <t xml:space="preserve">The ID number of the data collection method documented in MonitoringResources.org </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2444,12 +2469,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>PIBOCollectionMethodID</t>
+          <t>EPAAnalysisMethodID</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">The ID number of the data collection method documented in MonitoringResources.org </t>
+          <t xml:space="preserve">The ID number of the data analysis method documented in MonitoringResources.org </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2461,15 +2486,100 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>PIBOField</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The column header in the PIBO data set </t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>PIBOFieldCorrection</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Data manager correction or note on the field cross-walk </t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>PIBODescriptionIfDifferentFromDescription</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Description of the element if it is different from the definition defined in the "Definition" </t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>PIBOUnits</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Unit of the metric from the PIBO metadata </t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>PIBOCollectionMethodID</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The ID number of the data collection method documented in MonitoringResources.org </t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
           <t>PIBOAnalysisMethodID</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t xml:space="preserve">The ID number of the data analysis method documented in MonitoringResources.org </t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>x</t>
         </is>

--- a/Metrics Not In Controlled Vocabulary.xlsx
+++ b/Metrics Not In Controlled Vocabulary.xlsx
@@ -411,19 +411,19 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>AREMPDescriptionIfDifferentFromDefinition</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>AREMPField</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>AREMPFieldCorrection</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>AREMPDescriptionIfDifferentFromDefinition</t>
-        </is>
-      </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
           <t>AREMPUnits</t>
@@ -441,24 +441,24 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>BLMDescriptionIfDifferentFromDefinition</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>BLMFieldFromMetadata</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>BLMField</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>BLMFieldCorrection</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>BLMDescriptionIfDifferentFromDefinition</t>
-        </is>
-      </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
           <t>BLMUnits</t>
@@ -476,29 +476,29 @@
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
+          <t>EPADescriptionIfDifferentFromDefinition</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>EPA2008Field</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>EPA2008FieldCorrection</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>EPA2004Field</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>EPA2004FieldCorrection</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>EPADescriptionIfDifferentFromDefinition</t>
-        </is>
-      </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>EPAUnits</t>
@@ -516,17 +516,17 @@
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
+          <t>PIBODescriptionIfDifferentFromDescription</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
           <t>PIBOField</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>PIBOFieldCorrection</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>PIBODescriptionIfDifferentFromDescription</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
@@ -964,17 +964,17 @@
           <t xml:space="preserve">In habitat datasets this is often referred to as the SiteID. This ID identifying the location, while the reachID corresponds to the EventID. We use locationID to corresponds to Darwin Core standard. </t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>site_survey_id</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>UID</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>UID</t>
         </is>
@@ -984,12 +984,12 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>UID</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>RchID</t>
         </is>
@@ -1080,17 +1080,17 @@
           <t xml:space="preserve">For this dataset we use the botton of the reach as the location. </t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>lattitude</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>BRLat</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>BTMLAT</t>
         </is>
@@ -1100,12 +1100,12 @@
           <t>decimal degrees</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
         <is>
           <t>LAT_DD83</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
+      <c r="AA13" t="inlineStr">
         <is>
           <t>LAT_DD</t>
         </is>
@@ -1115,7 +1115,7 @@
           <t xml:space="preserve">Decimal Degrees </t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
+      <c r="AG13" t="inlineStr">
         <is>
           <t>Lat</t>
         </is>
@@ -1168,17 +1168,17 @@
           <t xml:space="preserve">For this dataset we use the botton of the reach as the location. </t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>longitude</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>BRLong</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>BTMLONG</t>
         </is>
@@ -1188,12 +1188,12 @@
           <t>decimal degrees</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
         <is>
           <t>LON_DD83</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
+      <c r="AA14" t="inlineStr">
         <is>
           <t>LON_DD</t>
         </is>
@@ -1203,7 +1203,7 @@
           <t xml:space="preserve">Decimal Degrees </t>
         </is>
       </c>
-      <c r="AF14" t="inlineStr">
+      <c r="AG14" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
@@ -1256,12 +1256,12 @@
           <t xml:space="preserve">For this data set this field is often refered to as Stream Name. </t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>StreamName</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>STRM_NM</t>
         </is>
@@ -1271,12 +1271,12 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
+      <c r="AA15" t="inlineStr">
         <is>
           <t>SITENAME</t>
         </is>
       </c>
-      <c r="AF15" t="inlineStr">
+      <c r="AG15" t="inlineStr">
         <is>
           <t>Stream</t>
         </is>
@@ -1357,27 +1357,27 @@
           <t xml:space="preserve">Text </t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>STATES</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="S17" t="inlineStr">
         <is>
           <t>ADMIN_ST</t>
         </is>
       </c>
-      <c r="X17" t="inlineStr">
+      <c r="Y17" t="inlineStr">
         <is>
           <t>STATE</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
+      <c r="AA17" t="inlineStr">
         <is>
           <t>STATE</t>
         </is>
       </c>
-      <c r="AF17" t="inlineStr">
+      <c r="AG17" t="inlineStr">
         <is>
           <t>State</t>
         </is>
@@ -1567,17 +1567,17 @@
           <t>Character</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>GLOBALID</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="R22" t="inlineStr">
         <is>
           <t>MasterCode</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr">
+      <c r="S22" t="inlineStr">
         <is>
           <t>MS_CD</t>
         </is>
@@ -1587,17 +1587,17 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="X22" t="inlineStr">
+      <c r="Y22" t="inlineStr">
         <is>
           <t>SITE_ID</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
+      <c r="AA22" t="inlineStr">
         <is>
           <t>SITE_ID</t>
         </is>
       </c>
-      <c r="AF22" t="inlineStr">
+      <c r="AG22" t="inlineStr">
         <is>
           <t>SiteID</t>
         </is>
@@ -1645,22 +1645,22 @@
           <t xml:space="preserve">Integer </t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>survey_year</t>
         </is>
       </c>
-      <c r="X23" t="inlineStr">
+      <c r="Y23" t="inlineStr">
         <is>
           <t>YEAR</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
+      <c r="AA23" t="inlineStr">
         <is>
           <t xml:space="preserve">YEAR </t>
         </is>
       </c>
-      <c r="AF23" t="inlineStr">
+      <c r="AG23" t="inlineStr">
         <is>
           <t>Yr</t>
         </is>
@@ -1746,12 +1746,12 @@
           <t xml:space="preserve">Date </t>
         </is>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="R25" t="inlineStr">
         <is>
           <t>Date (DT)</t>
         </is>
       </c>
-      <c r="R25" t="inlineStr">
+      <c r="S25" t="inlineStr">
         <is>
           <t>DT</t>
         </is>
@@ -1761,7 +1761,7 @@
           <t>m/d/yyyy</t>
         </is>
       </c>
-      <c r="X25" t="inlineStr">
+      <c r="Y25" t="inlineStr">
         <is>
           <t>DATE_COL</t>
         </is>
@@ -1804,17 +1804,17 @@
           <t>Integer</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>survey_type</t>
         </is>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="R26" t="inlineStr">
         <is>
           <t>Protocol</t>
         </is>
       </c>
-      <c r="R26" t="inlineStr">
+      <c r="S26" t="inlineStr">
         <is>
           <t>Protocol</t>
         </is>
@@ -1862,12 +1862,12 @@
           <t xml:space="preserve">Text </t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="R27" t="inlineStr">
         <is>
           <t>FieldStatus</t>
         </is>
       </c>
-      <c r="R27" t="inlineStr">
+      <c r="S27" t="inlineStr">
         <is>
           <t>FieldStatus</t>
         </is>
